--- a/biology/Histoire de la zoologie et de la botanique/James_Franklin_(naturaliste)/James_Franklin_(naturaliste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Franklin_(naturaliste)/James_Franklin_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Franklin (1783 - 31 août 1834) est un soldat britannique, frère de John Franklin.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Franklin est entré au service de la Compagnie anglaise des Indes orientales comme cadet en 1805. Il a servi avec distinction sur différents théâtres d'opération en Inde dans le cadre de la Ire Cavalerie du Bengale. Autorité dans le domaine de la géologie, il a été élu membre de la Royal Society. C'est au cours de son service dans la Central Provinces and Berar qu'il a collecté des spécimens d'oiseaux pour l'Asiatic Society. Ainsi, il a recueilli environ quarante espèces différentes avant d'atteindre Bénarès, et plus de 160 à Saugor. En outre, il a réalisé un grand nombre de peintures. Les spécimens ont été envoyés à la Zoological Society of London tandis que les peintures sont restées à l'Asiatic Society de Calcutta[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Franklin est entré au service de la Compagnie anglaise des Indes orientales comme cadet en 1805. Il a servi avec distinction sur différents théâtres d'opération en Inde dans le cadre de la Ire Cavalerie du Bengale. Autorité dans le domaine de la géologie, il a été élu membre de la Royal Society. C'est au cours de son service dans la Central Provinces and Berar qu'il a collecté des spécimens d'oiseaux pour l'Asiatic Society. Ainsi, il a recueilli environ quarante espèces différentes avant d'atteindre Bénarès, et plus de 160 à Saugor. En outre, il a réalisé un grand nombre de peintures. Les spécimens ont été envoyés à la Zoological Society of London tandis que les peintures sont restées à l'Asiatic Society de Calcutta.
 </t>
         </is>
       </c>
